--- a/reports/assets_report.xlsx
+++ b/reports/assets_report.xlsx
@@ -92,94 +92,256 @@
     <t>Violation History</t>
   </si>
   <si>
-    <t>aaaaa ba</t>
-  </si>
-  <si>
-    <t>asdf</t>
+    <t>Xpefia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tip 
+</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>test asset 1</t>
+  </si>
+  <si>
+    <t>asset desc</t>
   </si>
   <si>
     <t>ass loc</t>
   </si>
   <si>
-    <t>talhatha</t>
+    <t>custodia</t>
+  </si>
+  <si>
+    <t>2014-10-01</t>
+  </si>
+  <si>
+    <t>2014-10-02</t>
+  </si>
+  <si>
+    <t>accid his</t>
+  </si>
+  <si>
+    <t>violhis</t>
+  </si>
+  <si>
+    <t>test asset</t>
+  </si>
+  <si>
+    <t>sdfsrfsf</t>
+  </si>
+  <si>
+    <t>sfd</t>
+  </si>
+  <si>
+    <t>Sdf</t>
+  </si>
+  <si>
+    <t>2014-10-08</t>
+  </si>
+  <si>
+    <t>Thi is tesxt</t>
+  </si>
+  <si>
+    <t>sfdsfsf</t>
+  </si>
+  <si>
+    <t>test aset 3</t>
+  </si>
+  <si>
+    <t>ASDF</t>
+  </si>
+  <si>
+    <t>cus</t>
+  </si>
+  <si>
+    <t>0000-00-00</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>VIO</t>
+  </si>
+  <si>
+    <t>test aset 2</t>
+  </si>
+  <si>
+    <t>2014-10-22</t>
+  </si>
+  <si>
+    <t>acc his</t>
+  </si>
+  <si>
+    <t>vio his</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ericson prodct 
+</t>
+  </si>
+  <si>
+    <t>pettai</t>
+  </si>
+  <si>
+    <t>talha</t>
+  </si>
+  <si>
+    <t>sets</t>
+  </si>
+  <si>
+    <t>2014-11-18</t>
+  </si>
+  <si>
+    <t>2014-11-19</t>
+  </si>
+  <si>
+    <t>2014-11-20</t>
+  </si>
+  <si>
+    <t>2014-11-21</t>
+  </si>
+  <si>
+    <t>2014-11-22</t>
+  </si>
+  <si>
+    <t>2014-11-23</t>
+  </si>
+  <si>
+    <t>sdfsdf</t>
+  </si>
+  <si>
+    <t>testasas</t>
+  </si>
+  <si>
+    <t>sdfsafdsadf</t>
+  </si>
+  <si>
+    <t>Mazdas</t>
+  </si>
+  <si>
+    <t>sdfs</t>
+  </si>
+  <si>
+    <t>nokia 108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The brand new nokia 108 for us 
+</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>Salman</t>
+  </si>
+  <si>
+    <t>NEW TEST</t>
+  </si>
+  <si>
+    <t>Ass desc</t>
+  </si>
+  <si>
+    <t>veh num</t>
+  </si>
+  <si>
+    <t>2014-10-03</t>
+  </si>
+  <si>
+    <t>2014-10-04</t>
+  </si>
+  <si>
+    <t>2014-10-05</t>
+  </si>
+  <si>
+    <t>tot mina</t>
+  </si>
+  <si>
+    <t>tot dep</t>
+  </si>
+  <si>
+    <t>pur</t>
+  </si>
+  <si>
+    <t>cur</t>
+  </si>
+  <si>
+    <t>2014-10-06</t>
+  </si>
+  <si>
+    <t>2014-10-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acc  </t>
+  </si>
+  <si>
+    <t>vio</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>loc</t>
+  </si>
+  <si>
+    <t>cust</t>
+  </si>
+  <si>
+    <t>accsa</t>
+  </si>
+  <si>
+    <t>viosa</t>
+  </si>
+  <si>
+    <t>Moto e</t>
+  </si>
+  <si>
+    <t>sdf</t>
   </si>
   <si>
     <t>under_maintenance</t>
   </si>
   <si>
-    <t>2014-10-20</t>
-  </si>
-  <si>
-    <t>2014-10-21</t>
-  </si>
-  <si>
-    <t>2014-10-22</t>
-  </si>
-  <si>
-    <t>2014-10-23</t>
-  </si>
-  <si>
-    <t>2014-10-24</t>
-  </si>
-  <si>
-    <t>2014-10-25</t>
-  </si>
-  <si>
-    <t>asfa</t>
-  </si>
-  <si>
-    <t>asdfbv</t>
-  </si>
-  <si>
-    <t>deswc</t>
-  </si>
-  <si>
-    <t>loc</t>
-  </si>
-  <si>
-    <t>cus</t>
-  </si>
-  <si>
-    <t>2014-10-01</t>
-  </si>
-  <si>
-    <t>2014-10-02</t>
-  </si>
-  <si>
-    <t>2014-10-03</t>
-  </si>
-  <si>
-    <t>2014-10-04</t>
-  </si>
-  <si>
-    <t>2014-10-05</t>
-  </si>
-  <si>
-    <t>2014-10-06</t>
-  </si>
-  <si>
-    <t>acc</t>
-  </si>
-  <si>
-    <t>vio</t>
-  </si>
-  <si>
-    <t>Black berry</t>
-  </si>
-  <si>
-    <t>thanseel</t>
-  </si>
-  <si>
-    <t>pocket</t>
+    <t>2014-11-11</t>
+  </si>
+  <si>
+    <t>2014-11-12</t>
+  </si>
+  <si>
+    <t>2014-11-13</t>
+  </si>
+  <si>
+    <t>2014-11-14</t>
+  </si>
+  <si>
+    <t>2014-11-16</t>
+  </si>
+  <si>
+    <t>2014-11-17</t>
+  </si>
+  <si>
+    <t>Moto E</t>
+  </si>
+  <si>
+    <t>My Own motorolla</t>
   </si>
   <si>
     <t>Mohammed Talha</t>
   </si>
   <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>Mazdas</t>
+    <t>XT895</t>
   </si>
   <si>
     <t>Vehicle</t>
@@ -188,7 +350,55 @@
     <t>Human resources</t>
   </si>
   <si>
-    <t>2014-11-23</t>
+    <t>NIL</t>
+  </si>
+  <si>
+    <t>nil</t>
+  </si>
+  <si>
+    <t>liftsqaa</t>
+  </si>
+  <si>
+    <t>Main lift this wayaa</t>
+  </si>
+  <si>
+    <t>rPaa</t>
+  </si>
+  <si>
+    <t>fhf</t>
+  </si>
+  <si>
+    <t>zdfwe</t>
+  </si>
+  <si>
+    <t>2014-11-26</t>
+  </si>
+  <si>
+    <t>2014-10-09</t>
+  </si>
+  <si>
+    <t>2014-10-10</t>
+  </si>
+  <si>
+    <t>2014-10-11</t>
+  </si>
+  <si>
+    <t>2014-10-12</t>
+  </si>
+  <si>
+    <t>aaaaaaaa</t>
+  </si>
+  <si>
+    <t>vvvvaaaaaa</t>
+  </si>
+  <si>
+    <t>jack</t>
+  </si>
+  <si>
+    <t>2014-11-15</t>
+  </si>
+  <si>
+    <t>Goodday</t>
   </si>
   <si>
     <t>2014-11-24</t>
@@ -197,37 +407,10 @@
     <t>2014-11-25</t>
   </si>
   <si>
-    <t>2014-11-26</t>
-  </si>
-  <si>
     <t>2014-11-27</t>
   </si>
   <si>
     <t>2014-11-28</t>
-  </si>
-  <si>
-    <t>2014-11-29</t>
-  </si>
-  <si>
-    <t>2014-11-30</t>
-  </si>
-  <si>
-    <t>nil</t>
-  </si>
-  <si>
-    <t>Computer</t>
-  </si>
-  <si>
-    <t>IBMs</t>
-  </si>
-  <si>
-    <t>Main server room</t>
-  </si>
-  <si>
-    <t>2014-11-10</t>
-  </si>
-  <si>
-    <t>0000-00-00</t>
   </si>
   <si>
     <t>CPU</t>
@@ -246,250 +429,67 @@
     <t>inactive</t>
   </si>
   <si>
-    <t>Goodday</t>
-  </si>
-  <si>
-    <t>2014-11-21</t>
-  </si>
-  <si>
-    <t>2014-11-22</t>
-  </si>
-  <si>
-    <t>jack</t>
-  </si>
-  <si>
-    <t>2014-11-12</t>
-  </si>
-  <si>
-    <t>2014-11-13</t>
-  </si>
-  <si>
-    <t>2014-11-14</t>
-  </si>
-  <si>
-    <t>2014-11-15</t>
-  </si>
-  <si>
-    <t>2014-11-16</t>
-  </si>
-  <si>
-    <t>2014-11-17</t>
-  </si>
-  <si>
-    <t>liftsqaa</t>
-  </si>
-  <si>
-    <t>Main lift this wayaa</t>
-  </si>
-  <si>
-    <t>rPaa</t>
-  </si>
-  <si>
-    <t>veh num</t>
-  </si>
-  <si>
-    <t>testasas</t>
-  </si>
-  <si>
-    <t>fhf</t>
-  </si>
-  <si>
-    <t>zdfwe</t>
-  </si>
-  <si>
-    <t>2014-10-08</t>
-  </si>
-  <si>
-    <t>2014-10-09</t>
-  </si>
-  <si>
-    <t>2014-10-10</t>
-  </si>
-  <si>
-    <t>2014-10-11</t>
-  </si>
-  <si>
-    <t>2014-10-12</t>
-  </si>
-  <si>
-    <t>aaaaaaaa</t>
-  </si>
-  <si>
-    <t>vvvvaaaaaa</t>
-  </si>
-  <si>
-    <t>Moto e</t>
-  </si>
-  <si>
-    <t>sdf</t>
-  </si>
-  <si>
-    <t>pettai</t>
-  </si>
-  <si>
-    <t>2014-11-11</t>
-  </si>
-  <si>
-    <t>2014-11-18</t>
-  </si>
-  <si>
-    <t>Moto E</t>
-  </si>
-  <si>
-    <t>My Own motorolla</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>XT895</t>
-  </si>
-  <si>
-    <t>tot mina</t>
-  </si>
-  <si>
-    <t>tot dep</t>
-  </si>
-  <si>
-    <t>2014-10-07</t>
-  </si>
-  <si>
-    <t>NIL</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>cust</t>
-  </si>
-  <si>
-    <t>accsa</t>
-  </si>
-  <si>
-    <t>viosa</t>
-  </si>
-  <si>
-    <t>NEW TEST</t>
-  </si>
-  <si>
-    <t>Ass desc</t>
-  </si>
-  <si>
-    <t>pur</t>
-  </si>
-  <si>
-    <t>cur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acc  </t>
-  </si>
-  <si>
-    <t>nokia 108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The brand new nokia 108 for us 
-</t>
-  </si>
-  <si>
-    <t>Salman</t>
-  </si>
-  <si>
-    <t>sdfsafdsadf</t>
-  </si>
-  <si>
-    <t>sdfsdf</t>
-  </si>
-  <si>
-    <t>sdfs</t>
-  </si>
-  <si>
-    <t>sets</t>
-  </si>
-  <si>
-    <t>2014-11-19</t>
-  </si>
-  <si>
-    <t>2014-11-20</t>
-  </si>
-  <si>
-    <t>Sony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ericson prodct 
-</t>
-  </si>
-  <si>
-    <t>talha</t>
-  </si>
-  <si>
-    <t>test aset 2</t>
-  </si>
-  <si>
-    <t>asset desc</t>
-  </si>
-  <si>
-    <t>acc his</t>
-  </si>
-  <si>
-    <t>vio his</t>
-  </si>
-  <si>
-    <t>test aset 3</t>
-  </si>
-  <si>
-    <t>ASDF</t>
-  </si>
-  <si>
-    <t>ACC</t>
-  </si>
-  <si>
-    <t>VIO</t>
-  </si>
-  <si>
-    <t>test asset</t>
-  </si>
-  <si>
-    <t>sdfsrfsf</t>
-  </si>
-  <si>
-    <t>sfd</t>
-  </si>
-  <si>
-    <t>Sdf</t>
-  </si>
-  <si>
-    <t>Thi is tesxt</t>
-  </si>
-  <si>
-    <t>sfdsfsf</t>
-  </si>
-  <si>
-    <t>test asset 1</t>
-  </si>
-  <si>
-    <t>custodia</t>
-  </si>
-  <si>
-    <t>accid his</t>
-  </si>
-  <si>
-    <t>violhis</t>
-  </si>
-  <si>
-    <t>Xpefia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tip 
-</t>
-  </si>
-  <si>
-    <t>al</t>
-  </si>
-  <si>
-    <t>Ali</t>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>IBMs</t>
+  </si>
+  <si>
+    <t>Main server room</t>
+  </si>
+  <si>
+    <t>2014-11-10</t>
+  </si>
+  <si>
+    <t>Black berry</t>
+  </si>
+  <si>
+    <t>thanseel</t>
+  </si>
+  <si>
+    <t>pocket</t>
+  </si>
+  <si>
+    <t>2014-11-29</t>
+  </si>
+  <si>
+    <t>2014-11-30</t>
+  </si>
+  <si>
+    <t>deswc</t>
+  </si>
+  <si>
+    <t>acc</t>
+  </si>
+  <si>
+    <t>aaaaa ba</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>talhatha</t>
+  </si>
+  <si>
+    <t>2014-10-20</t>
+  </si>
+  <si>
+    <t>2014-10-21</t>
+  </si>
+  <si>
+    <t>2014-10-23</t>
+  </si>
+  <si>
+    <t>2014-10-24</t>
+  </si>
+  <si>
+    <t>2014-10-25</t>
+  </si>
+  <si>
+    <t>asfa</t>
+  </si>
+  <si>
+    <t>asdfbv</t>
   </si>
 </sst>
 </file>
@@ -915,7 +915,7 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -937,52 +937,36 @@
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
-      <c r="L5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>35</v>
-      </c>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5"/>
-      <c r="X5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>37</v>
-      </c>
+      <c r="X5"/>
+      <c r="Y5"/>
     </row>
     <row r="6" spans="1:25">
       <c r="A6">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -993,23 +977,15 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" t="s">
-        <v>44</v>
-      </c>
-      <c r="P6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>46</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
       <c r="T6"/>
@@ -1017,27 +993,27 @@
       <c r="V6"/>
       <c r="W6"/>
       <c r="X6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Y6" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -1048,23 +1024,13 @@
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" t="s">
         <v>42</v>
       </c>
-      <c r="N7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>46</v>
-      </c>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
@@ -1072,27 +1038,27 @@
       <c r="V7"/>
       <c r="W7"/>
       <c r="X7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Y7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -1103,23 +1069,15 @@
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>46</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
       <c r="R8"/>
       <c r="S8"/>
       <c r="T8"/>
@@ -1127,886 +1085,886 @@
       <c r="V8"/>
       <c r="W8"/>
       <c r="X8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Y8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" t="s">
         <v>52</v>
       </c>
-      <c r="F9" t="s">
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9" t="s">
         <v>53</v>
       </c>
-      <c r="G9" t="s">
+      <c r="Y9" t="s">
         <v>54</v>
-      </c>
-      <c r="H9">
-        <v>123123</v>
-      </c>
-      <c r="I9">
-        <v>23423</v>
-      </c>
-      <c r="J9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9" t="s">
-        <v>59</v>
-      </c>
-      <c r="O9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>62</v>
-      </c>
-      <c r="R9">
-        <v>234</v>
-      </c>
-      <c r="S9">
-        <v>34</v>
-      </c>
-      <c r="T9">
-        <v>2323</v>
-      </c>
-      <c r="U9">
-        <v>234234</v>
-      </c>
-      <c r="V9" t="s">
-        <v>63</v>
-      </c>
-      <c r="W9" t="s">
-        <v>64</v>
-      </c>
-      <c r="X9" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10"/>
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
-      <c r="L10" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" t="s">
-        <v>70</v>
-      </c>
-      <c r="N10" t="s">
-        <v>70</v>
-      </c>
-      <c r="O10" t="s">
-        <v>70</v>
-      </c>
-      <c r="P10" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>70</v>
-      </c>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
       <c r="T10"/>
       <c r="U10"/>
-      <c r="V10" t="s">
-        <v>70</v>
-      </c>
-      <c r="W10" t="s">
-        <v>70</v>
-      </c>
+      <c r="V10"/>
+      <c r="W10"/>
       <c r="X10"/>
       <c r="Y10"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" t="s">
-        <v>75</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
+      <c r="L11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>65</v>
+      </c>
       <c r="R11"/>
       <c r="S11"/>
       <c r="T11"/>
       <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
+      <c r="V11" t="s">
+        <v>48</v>
+      </c>
+      <c r="W11" t="s">
+        <v>48</v>
+      </c>
       <c r="X11"/>
       <c r="Y11"/>
     </row>
     <row r="12" spans="1:25">
       <c r="A12">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
-      <c r="F12" t="s">
-        <v>53</v>
-      </c>
+      <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
-      <c r="I12"/>
+      <c r="I12" t="s">
+        <v>67</v>
+      </c>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="M12" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="N12" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="O12" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="P12" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="Q12" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12"/>
       <c r="U12"/>
       <c r="V12" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="W12" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="X12"/>
       <c r="Y12"/>
     </row>
     <row r="13" spans="1:25">
       <c r="A13">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13"/>
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" t="s">
+        <v>67</v>
+      </c>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="M13" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="N13" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="O13" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="P13" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="Q13" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="R13"/>
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13"/>
       <c r="V13" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="W13" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="X13"/>
       <c r="Y13"/>
     </row>
     <row r="14" spans="1:25">
       <c r="A14">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="G14"/>
-      <c r="H14" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" t="s">
-        <v>90</v>
-      </c>
-      <c r="J14" t="s">
-        <v>91</v>
-      </c>
-      <c r="K14" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" t="s">
-        <v>60</v>
-      </c>
-      <c r="M14" t="s">
-        <v>93</v>
-      </c>
-      <c r="N14" t="s">
-        <v>94</v>
-      </c>
-      <c r="O14" t="s">
-        <v>95</v>
-      </c>
-      <c r="P14" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>97</v>
-      </c>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
       <c r="R14"/>
       <c r="S14"/>
       <c r="T14"/>
       <c r="U14"/>
-      <c r="V14" t="s">
-        <v>70</v>
-      </c>
-      <c r="W14" t="s">
-        <v>70</v>
-      </c>
-      <c r="X14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>99</v>
-      </c>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
     </row>
     <row r="15" spans="1:25">
       <c r="A15">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15"/>
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
       <c r="F15" t="s">
         <v>29</v>
       </c>
-      <c r="G15"/>
-      <c r="H15"/>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>77</v>
+      </c>
       <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
       <c r="L15" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="M15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" t="s">
+        <v>78</v>
+      </c>
+      <c r="P15" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q15" t="s">
         <v>80</v>
       </c>
-      <c r="N15" t="s">
+      <c r="R15" t="s">
         <v>81</v>
       </c>
-      <c r="O15" t="s">
+      <c r="S15" t="s">
         <v>82</v>
       </c>
-      <c r="P15" t="s">
+      <c r="T15" t="s">
+        <v>83</v>
+      </c>
+      <c r="U15" t="s">
         <v>84</v>
       </c>
-      <c r="Q15" t="s">
-        <v>84</v>
-      </c>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
       <c r="V15" t="s">
         <v>85</v>
       </c>
       <c r="W15" t="s">
-        <v>104</v>
-      </c>
-      <c r="X15"/>
-      <c r="Y15"/>
+        <v>86</v>
+      </c>
+      <c r="X15" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16">
-        <v>9788755</v>
-      </c>
-      <c r="I16" t="s">
-        <v>108</v>
-      </c>
-      <c r="J16" t="s">
-        <v>55</v>
-      </c>
-      <c r="K16" t="s">
-        <v>56</v>
-      </c>
-      <c r="L16" t="s">
-        <v>41</v>
-      </c>
-      <c r="M16" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O16" t="s">
-        <v>44</v>
-      </c>
-      <c r="P16" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>46</v>
-      </c>
-      <c r="R16" t="s">
-        <v>109</v>
-      </c>
-      <c r="S16" t="s">
-        <v>110</v>
-      </c>
-      <c r="T16">
-        <v>7000</v>
-      </c>
-      <c r="U16">
-        <v>6999</v>
-      </c>
-      <c r="V16" t="s">
-        <v>111</v>
-      </c>
-      <c r="W16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16" t="s">
         <v>93</v>
       </c>
-      <c r="X16" t="s">
-        <v>112</v>
-      </c>
       <c r="Y16" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" t="s">
-        <v>115</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E17"/>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
+      <c r="L17" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17" t="s">
+        <v>99</v>
+      </c>
+      <c r="N17" t="s">
+        <v>100</v>
+      </c>
+      <c r="O17" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>102</v>
+      </c>
       <c r="R17"/>
       <c r="S17"/>
       <c r="T17"/>
       <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>117</v>
-      </c>
+      <c r="V17" t="s">
+        <v>103</v>
+      </c>
+      <c r="W17" t="s">
+        <v>60</v>
+      </c>
+      <c r="X17"/>
+      <c r="Y17"/>
     </row>
     <row r="18" spans="1:25">
       <c r="A18">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18"/>
-      <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18">
+        <v>9788755</v>
+      </c>
+      <c r="I18" t="s">
+        <v>107</v>
+      </c>
+      <c r="J18" t="s">
+        <v>108</v>
+      </c>
+      <c r="K18" t="s">
+        <v>109</v>
       </c>
       <c r="L18" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M18" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" t="s">
+        <v>78</v>
+      </c>
+      <c r="O18" t="s">
+        <v>79</v>
+      </c>
+      <c r="P18" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>85</v>
+      </c>
+      <c r="R18" t="s">
+        <v>81</v>
+      </c>
+      <c r="S18" t="s">
+        <v>82</v>
+      </c>
+      <c r="T18">
+        <v>7000</v>
+      </c>
+      <c r="U18">
+        <v>6999</v>
+      </c>
+      <c r="V18" t="s">
+        <v>86</v>
+      </c>
+      <c r="W18" t="s">
         <v>42</v>
       </c>
-      <c r="N18" t="s">
-        <v>42</v>
-      </c>
-      <c r="O18" t="s">
-        <v>43</v>
-      </c>
-      <c r="P18" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>45</v>
-      </c>
-      <c r="R18" t="s">
-        <v>109</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="X18" t="s">
         <v>110</v>
       </c>
-      <c r="T18" t="s">
-        <v>120</v>
-      </c>
-      <c r="U18" t="s">
-        <v>121</v>
-      </c>
-      <c r="V18" t="s">
-        <v>46</v>
-      </c>
-      <c r="W18" t="s">
+      <c r="Y18" t="s">
         <v>111</v>
-      </c>
-      <c r="X18" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
+      <c r="H19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" t="s">
+        <v>115</v>
+      </c>
+      <c r="K19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L19" t="s">
+        <v>117</v>
+      </c>
+      <c r="M19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O19" t="s">
+        <v>119</v>
+      </c>
+      <c r="P19" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>121</v>
+      </c>
       <c r="R19"/>
       <c r="S19"/>
       <c r="T19"/>
       <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
+      <c r="V19" t="s">
+        <v>48</v>
+      </c>
+      <c r="W19" t="s">
+        <v>48</v>
+      </c>
+      <c r="X19" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" t="s">
-        <v>127</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
-      <c r="G20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" t="s">
-        <v>128</v>
-      </c>
-      <c r="I20" t="s">
-        <v>90</v>
-      </c>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="M20" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N20" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="O20" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="P20" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="Q20" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="R20"/>
       <c r="S20"/>
       <c r="T20"/>
       <c r="U20"/>
       <c r="V20" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="W20" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="X20"/>
       <c r="Y20"/>
     </row>
     <row r="21" spans="1:25">
       <c r="A21">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
-      <c r="F21"/>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
       <c r="G21"/>
       <c r="H21"/>
-      <c r="I21" t="s">
-        <v>90</v>
-      </c>
+      <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M21" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="N21" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="O21" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="P21" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="Q21" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="R21"/>
       <c r="S21"/>
       <c r="T21"/>
       <c r="U21"/>
       <c r="V21" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="W21" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="X21"/>
       <c r="Y21"/>
     </row>
     <row r="22" spans="1:25">
       <c r="A22">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
+        <v>131</v>
+      </c>
+      <c r="C22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" t="s">
+        <v>135</v>
+      </c>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
-      <c r="L22" t="s">
-        <v>104</v>
-      </c>
-      <c r="M22" t="s">
-        <v>130</v>
-      </c>
-      <c r="N22" t="s">
-        <v>131</v>
-      </c>
-      <c r="O22" t="s">
-        <v>77</v>
-      </c>
-      <c r="P22" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>57</v>
-      </c>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
       <c r="R22"/>
       <c r="S22"/>
       <c r="T22"/>
       <c r="U22"/>
-      <c r="V22" t="s">
-        <v>70</v>
-      </c>
-      <c r="W22" t="s">
-        <v>70</v>
-      </c>
+      <c r="V22"/>
+      <c r="W22"/>
       <c r="X22"/>
       <c r="Y22"/>
     </row>
     <row r="23" spans="1:25">
       <c r="A23">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" t="s">
-        <v>134</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="E23"/>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
+      <c r="L23" t="s">
+        <v>139</v>
+      </c>
+      <c r="M23" t="s">
+        <v>48</v>
+      </c>
+      <c r="N23" t="s">
+        <v>48</v>
+      </c>
+      <c r="O23" t="s">
+        <v>48</v>
+      </c>
+      <c r="P23" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>48</v>
+      </c>
       <c r="R23"/>
       <c r="S23"/>
       <c r="T23"/>
       <c r="U23"/>
-      <c r="V23"/>
-      <c r="W23"/>
+      <c r="V23" t="s">
+        <v>48</v>
+      </c>
+      <c r="W23" t="s">
+        <v>48</v>
+      </c>
       <c r="X23"/>
       <c r="Y23"/>
     </row>
     <row r="24" spans="1:25">
       <c r="A24">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
+        <v>29</v>
+      </c>
+      <c r="G24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24">
+        <v>123123</v>
+      </c>
+      <c r="I24">
+        <v>23423</v>
+      </c>
+      <c r="J24" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" t="s">
+        <v>109</v>
+      </c>
       <c r="L24" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="M24" t="s">
-        <v>32</v>
-      </c>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="W24"/>
+        <v>127</v>
+      </c>
+      <c r="N24" t="s">
+        <v>128</v>
+      </c>
+      <c r="O24" t="s">
+        <v>117</v>
+      </c>
+      <c r="P24" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>130</v>
+      </c>
+      <c r="R24">
+        <v>234</v>
+      </c>
+      <c r="S24">
+        <v>34</v>
+      </c>
+      <c r="T24">
+        <v>2323</v>
+      </c>
+      <c r="U24">
+        <v>234234</v>
+      </c>
+      <c r="V24" t="s">
+        <v>143</v>
+      </c>
+      <c r="W24" t="s">
+        <v>144</v>
+      </c>
       <c r="X24" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="Y24" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="G25"/>
       <c r="H25"/>
@@ -2014,15 +1972,23 @@
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M25" t="s">
-        <v>70</v>
-      </c>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
+        <v>35</v>
+      </c>
+      <c r="N25" t="s">
+        <v>78</v>
+      </c>
+      <c r="O25" t="s">
+        <v>79</v>
+      </c>
+      <c r="P25" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>85</v>
+      </c>
       <c r="R25"/>
       <c r="S25"/>
       <c r="T25"/>
@@ -2030,30 +1996,30 @@
       <c r="V25"/>
       <c r="W25"/>
       <c r="X25" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Y25" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
@@ -2061,13 +2027,23 @@
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26" t="s">
-        <v>93</v>
-      </c>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
+        <v>34</v>
+      </c>
+      <c r="M26" t="s">
+        <v>35</v>
+      </c>
+      <c r="N26" t="s">
+        <v>78</v>
+      </c>
+      <c r="O26" t="s">
+        <v>79</v>
+      </c>
+      <c r="P26" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>85</v>
+      </c>
       <c r="R26"/>
       <c r="S26"/>
       <c r="T26"/>
@@ -2075,30 +2051,30 @@
       <c r="V26"/>
       <c r="W26"/>
       <c r="X26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y26" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="E27" t="s">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -2106,15 +2082,23 @@
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
+        <v>35</v>
+      </c>
+      <c r="N27" t="s">
+        <v>78</v>
+      </c>
+      <c r="O27" t="s">
+        <v>79</v>
+      </c>
+      <c r="P27" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>85</v>
+      </c>
       <c r="R27"/>
       <c r="S27"/>
       <c r="T27"/>
@@ -2122,50 +2106,66 @@
       <c r="V27"/>
       <c r="W27"/>
       <c r="X27" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Y27" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C28" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D28" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
+      <c r="L28" t="s">
+        <v>150</v>
+      </c>
+      <c r="M28" t="s">
+        <v>151</v>
+      </c>
+      <c r="N28" t="s">
+        <v>52</v>
+      </c>
+      <c r="O28" t="s">
+        <v>152</v>
+      </c>
+      <c r="P28" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>154</v>
+      </c>
       <c r="R28"/>
       <c r="S28"/>
       <c r="T28"/>
       <c r="U28"/>
       <c r="V28"/>
       <c r="W28"/>
-      <c r="X28"/>
-      <c r="Y28"/>
+      <c r="X28" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>156</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/reports/assets_report.xlsx
+++ b/reports/assets_report.xlsx
@@ -3,6 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <workbookProtection lockRevision="false" lockStructure="true" lockWindows="true" workbookPassword="83AF"/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
   <si>
     <t>Asset id</t>
   </si>
@@ -90,6 +91,316 @@
   </si>
   <si>
     <t>Violation History</t>
+  </si>
+  <si>
+    <t>aaaaa ba</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>ass loc</t>
+  </si>
+  <si>
+    <t>talhatha</t>
+  </si>
+  <si>
+    <t>under_maintenance</t>
+  </si>
+  <si>
+    <t>2014-10-20</t>
+  </si>
+  <si>
+    <t>2014-10-21</t>
+  </si>
+  <si>
+    <t>2014-10-22</t>
+  </si>
+  <si>
+    <t>2014-10-23</t>
+  </si>
+  <si>
+    <t>2014-10-24</t>
+  </si>
+  <si>
+    <t>2014-10-25</t>
+  </si>
+  <si>
+    <t>asfa</t>
+  </si>
+  <si>
+    <t>asdfbv</t>
+  </si>
+  <si>
+    <t>deswc</t>
+  </si>
+  <si>
+    <t>loc</t>
+  </si>
+  <si>
+    <t>cus</t>
+  </si>
+  <si>
+    <t>2014-10-01</t>
+  </si>
+  <si>
+    <t>2014-10-02</t>
+  </si>
+  <si>
+    <t>2014-10-03</t>
+  </si>
+  <si>
+    <t>2014-10-04</t>
+  </si>
+  <si>
+    <t>2014-10-05</t>
+  </si>
+  <si>
+    <t>2014-10-06</t>
+  </si>
+  <si>
+    <t>acc</t>
+  </si>
+  <si>
+    <t>vio</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>IBMsasdasdadsaaaaaaaaaaaaaaaaaaaaassssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssffffffffffffffffffffffffffffffffffffffff</t>
+  </si>
+  <si>
+    <t>Main server room</t>
+  </si>
+  <si>
+    <t>Abdul Rahman Abdullah Alzahran</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Mazdas</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>testasas</t>
+  </si>
+  <si>
+    <t>Baombs</t>
+  </si>
+  <si>
+    <t>zdfwe</t>
+  </si>
+  <si>
+    <t>2014-11-10</t>
+  </si>
+  <si>
+    <t>2014-11-03</t>
+  </si>
+  <si>
+    <t>2014-11-18</t>
+  </si>
+  <si>
+    <t>2014-11-04</t>
+  </si>
+  <si>
+    <t>2014-11-25</t>
+  </si>
+  <si>
+    <t>q3e234</t>
+  </si>
+  <si>
+    <t>2014-11-26</t>
+  </si>
+  <si>
+    <t>2014-11-12</t>
+  </si>
+  <si>
+    <t>Acidnet history
+Acidnet history
+Acidnet history
+Acidnet historyAcidnet history</t>
+  </si>
+  <si>
+    <t>Violatoin shistory
+Violatoin shistory
+Violatoin shistory
+Violatoin shistory</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>intel 
+sdf</t>
+  </si>
+  <si>
+    <t>rP</t>
+  </si>
+  <si>
+    <t>talhaa</t>
+  </si>
+  <si>
+    <t>inactive</t>
+  </si>
+  <si>
+    <t>Goodday</t>
+  </si>
+  <si>
+    <t>2014-11-28</t>
+  </si>
+  <si>
+    <t>2014-11-22</t>
+  </si>
+  <si>
+    <t>2014-11-23</t>
+  </si>
+  <si>
+    <t>2014-11-24</t>
+  </si>
+  <si>
+    <t>2014-11-29</t>
+  </si>
+  <si>
+    <t>2014-11-27</t>
+  </si>
+  <si>
+    <t>jack</t>
+  </si>
+  <si>
+    <t>2014-11-13</t>
+  </si>
+  <si>
+    <t>2014-11-14</t>
+  </si>
+  <si>
+    <t>2014-11-15</t>
+  </si>
+  <si>
+    <t>2014-11-16</t>
+  </si>
+  <si>
+    <t>2014-11-17</t>
+  </si>
+  <si>
+    <t>0000-00-00</t>
+  </si>
+  <si>
+    <t>liftsqaa</t>
+  </si>
+  <si>
+    <t>Main lift this wayaa</t>
+  </si>
+  <si>
+    <t>rPaa</t>
+  </si>
+  <si>
+    <t>veh num</t>
+  </si>
+  <si>
+    <t>fhf</t>
+  </si>
+  <si>
+    <t>2014-10-08</t>
+  </si>
+  <si>
+    <t>2014-10-09</t>
+  </si>
+  <si>
+    <t>2014-10-10</t>
+  </si>
+  <si>
+    <t>2014-10-11</t>
+  </si>
+  <si>
+    <t>2014-10-12</t>
+  </si>
+  <si>
+    <t>aaaaaaaa</t>
+  </si>
+  <si>
+    <t>vvvvaaaaaa</t>
+  </si>
+  <si>
+    <t>Moto e</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>pettai</t>
+  </si>
+  <si>
+    <t>2014-11-11</t>
+  </si>
+  <si>
+    <t>Moto E</t>
+  </si>
+  <si>
+    <t>My Own motorolla</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>Mohammed Talha</t>
+  </si>
+  <si>
+    <t>XT895</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Human resources</t>
+  </si>
+  <si>
+    <t>tot mina</t>
+  </si>
+  <si>
+    <t>tot dep</t>
+  </si>
+  <si>
+    <t>2014-10-07</t>
+  </si>
+  <si>
+    <t>NIL</t>
+  </si>
+  <si>
+    <t>nil</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>cust</t>
+  </si>
+  <si>
+    <t>accsa</t>
+  </si>
+  <si>
+    <t>viosa</t>
+  </si>
+  <si>
+    <t>NEW TEST</t>
+  </si>
+  <si>
+    <t>Ass desc</t>
+  </si>
+  <si>
+    <t>pur</t>
+  </si>
+  <si>
+    <t>cur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acc  </t>
   </si>
   <si>
     <t>nokia 108</t>
@@ -99,212 +410,25 @@
 </t>
   </si>
   <si>
-    <t>table</t>
-  </si>
-  <si>
     <t>Salman</t>
   </si>
   <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>Moto E</t>
-  </si>
-  <si>
-    <t>My Own motorolla</t>
-  </si>
-  <si>
-    <t>Mohammed Talha</t>
-  </si>
-  <si>
-    <t>Mazdas</t>
-  </si>
-  <si>
-    <t>XT895</t>
-  </si>
-  <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>Human resources</t>
-  </si>
-  <si>
-    <t>2014-10-01</t>
-  </si>
-  <si>
-    <t>2014-10-02</t>
-  </si>
-  <si>
-    <t>2014-10-03</t>
-  </si>
-  <si>
-    <t>2014-10-04</t>
-  </si>
-  <si>
-    <t>2014-10-05</t>
-  </si>
-  <si>
-    <t>2014-10-06</t>
-  </si>
-  <si>
-    <t>tot mina</t>
-  </si>
-  <si>
-    <t>tot dep</t>
-  </si>
-  <si>
-    <t>2014-10-07</t>
-  </si>
-  <si>
-    <t>2014-10-08</t>
-  </si>
-  <si>
-    <t>NIL</t>
-  </si>
-  <si>
-    <t>nil</t>
-  </si>
-  <si>
-    <t>test asset</t>
-  </si>
-  <si>
-    <t>sdfsrfsf</t>
-  </si>
-  <si>
-    <t>sfd</t>
-  </si>
-  <si>
-    <t>Sdf</t>
-  </si>
-  <si>
-    <t>Thi is tesxt</t>
-  </si>
-  <si>
-    <t>sfdsfsf</t>
-  </si>
-  <si>
-    <t>liftsqaa</t>
-  </si>
-  <si>
-    <t>Main lift this wayaa</t>
-  </si>
-  <si>
-    <t>rPaa</t>
-  </si>
-  <si>
-    <t>inactive</t>
-  </si>
-  <si>
-    <t>veh num</t>
-  </si>
-  <si>
-    <t>testasas</t>
-  </si>
-  <si>
-    <t>fhf</t>
-  </si>
-  <si>
-    <t>zdfwe</t>
-  </si>
-  <si>
-    <t>2014-11-26</t>
-  </si>
-  <si>
-    <t>2014-10-09</t>
-  </si>
-  <si>
-    <t>2014-10-10</t>
-  </si>
-  <si>
-    <t>2014-10-11</t>
-  </si>
-  <si>
-    <t>2014-10-12</t>
-  </si>
-  <si>
-    <t>0000-00-00</t>
-  </si>
-  <si>
-    <t>aaaaaaaa</t>
-  </si>
-  <si>
-    <t>vvvvaaaaaa</t>
-  </si>
-  <si>
-    <t>CPU</t>
-  </si>
-  <si>
-    <t>intel 
-sdf</t>
-  </si>
-  <si>
-    <t>rP</t>
-  </si>
-  <si>
-    <t>talhaa</t>
-  </si>
-  <si>
-    <t>Black berry</t>
-  </si>
-  <si>
-    <t>thanseel</t>
-  </si>
-  <si>
-    <t>pocket</t>
-  </si>
-  <si>
-    <t>2014-11-23</t>
-  </si>
-  <si>
-    <t>2014-11-24</t>
-  </si>
-  <si>
-    <t>2014-11-25</t>
-  </si>
-  <si>
-    <t>2014-11-27</t>
-  </si>
-  <si>
-    <t>2014-11-28</t>
-  </si>
-  <si>
-    <t>2014-11-29</t>
-  </si>
-  <si>
-    <t>2014-11-30</t>
-  </si>
-  <si>
-    <t>Moto e</t>
-  </si>
-  <si>
-    <t>sdf</t>
-  </si>
-  <si>
-    <t>pettai</t>
-  </si>
-  <si>
-    <t>under_maintenance</t>
-  </si>
-  <si>
-    <t>2014-11-11</t>
-  </si>
-  <si>
-    <t>2014-11-12</t>
-  </si>
-  <si>
-    <t>2014-11-13</t>
-  </si>
-  <si>
-    <t>2014-11-14</t>
-  </si>
-  <si>
-    <t>2014-11-16</t>
-  </si>
-  <si>
-    <t>2014-11-17</t>
-  </si>
-  <si>
-    <t>2014-11-18</t>
+    <t>sdfsafdsadf</t>
+  </si>
+  <si>
+    <t>sdfsdf</t>
+  </si>
+  <si>
+    <t>sdfs</t>
+  </si>
+  <si>
+    <t>sets</t>
+  </si>
+  <si>
+    <t>2014-11-20</t>
+  </si>
+  <si>
+    <t>2014-11-21</t>
   </si>
   <si>
     <t>Sony</t>
@@ -317,57 +441,51 @@
     <t>talha</t>
   </si>
   <si>
-    <t>Computer</t>
-  </si>
-  <si>
-    <t>IBMs</t>
-  </si>
-  <si>
-    <t>Main server room</t>
-  </si>
-  <si>
-    <t>2014-11-10</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>loc</t>
-  </si>
-  <si>
-    <t>cust</t>
-  </si>
-  <si>
-    <t>accsa</t>
-  </si>
-  <si>
-    <t>viosa</t>
-  </si>
-  <si>
-    <t>deswc</t>
-  </si>
-  <si>
-    <t>cus</t>
-  </si>
-  <si>
-    <t>acc</t>
-  </si>
-  <si>
-    <t>vio</t>
+    <t>test aset 2</t>
+  </si>
+  <si>
+    <t>asset desc</t>
+  </si>
+  <si>
+    <t>acc his</t>
+  </si>
+  <si>
+    <t>vio his</t>
+  </si>
+  <si>
+    <t>test aset 3</t>
+  </si>
+  <si>
+    <t>ASDF</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>VIO</t>
+  </si>
+  <si>
+    <t>test asset</t>
+  </si>
+  <si>
+    <t>sdfsrfsf</t>
+  </si>
+  <si>
+    <t>sfd</t>
+  </si>
+  <si>
+    <t>Sdf</t>
+  </si>
+  <si>
+    <t>Thi is tesxt</t>
+  </si>
+  <si>
+    <t>sfdsfsf</t>
   </si>
   <si>
     <t>test asset 1</t>
   </si>
   <si>
-    <t>asset desc</t>
-  </si>
-  <si>
-    <t>ass loc</t>
-  </si>
-  <si>
     <t>custodia</t>
   </si>
   <si>
@@ -375,75 +493,6 @@
   </si>
   <si>
     <t>violhis</t>
-  </si>
-  <si>
-    <t>test aset 2</t>
-  </si>
-  <si>
-    <t>2014-10-22</t>
-  </si>
-  <si>
-    <t>acc his</t>
-  </si>
-  <si>
-    <t>vio his</t>
-  </si>
-  <si>
-    <t>test aset 3</t>
-  </si>
-  <si>
-    <t>ASDF</t>
-  </si>
-  <si>
-    <t>ACC</t>
-  </si>
-  <si>
-    <t>VIO</t>
-  </si>
-  <si>
-    <t>aaaaa ba</t>
-  </si>
-  <si>
-    <t>asdf</t>
-  </si>
-  <si>
-    <t>talhatha</t>
-  </si>
-  <si>
-    <t>2014-10-20</t>
-  </si>
-  <si>
-    <t>2014-10-21</t>
-  </si>
-  <si>
-    <t>2014-10-23</t>
-  </si>
-  <si>
-    <t>2014-10-24</t>
-  </si>
-  <si>
-    <t>2014-10-25</t>
-  </si>
-  <si>
-    <t>asfa</t>
-  </si>
-  <si>
-    <t>asdfbv</t>
-  </si>
-  <si>
-    <t>NEW TEST</t>
-  </si>
-  <si>
-    <t>Ass desc</t>
-  </si>
-  <si>
-    <t>pur</t>
-  </si>
-  <si>
-    <t>cur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acc  </t>
   </si>
   <si>
     <t>Xpefia</t>
@@ -457,9 +506,6 @@
   </si>
   <si>
     <t>Ali</t>
-  </si>
-  <si>
-    <t>Assets Report - New Horizons Company</t>
   </si>
 </sst>
 </file>
@@ -798,7 +844,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -912,7 +958,7 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -934,91 +980,85 @@
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>35</v>
+      </c>
       <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
+      <c r="X5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6">
-        <v>9788755</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" t="s">
-        <v>36</v>
-      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
       <c r="L6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S6" t="s">
-        <v>44</v>
-      </c>
-      <c r="T6">
-        <v>7000</v>
-      </c>
-      <c r="U6">
-        <v>6999</v>
-      </c>
-      <c r="V6" t="s">
-        <v>45</v>
-      </c>
-      <c r="W6" t="s">
         <v>46</v>
       </c>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
       <c r="X6" t="s">
         <v>47</v>
       </c>
@@ -1028,19 +1068,19 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -1051,13 +1091,23 @@
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" t="s">
         <v>46</v>
       </c>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
@@ -1065,209 +1115,195 @@
       <c r="V7"/>
       <c r="W7"/>
       <c r="X7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Y7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8"/>
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="G8"/>
-      <c r="H8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" t="s">
-        <v>62</v>
-      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
       <c r="L8" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="M8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" t="s">
         <v>46</v>
-      </c>
-      <c r="N8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O8" t="s">
-        <v>65</v>
-      </c>
-      <c r="P8" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>67</v>
       </c>
       <c r="R8"/>
       <c r="S8"/>
       <c r="T8"/>
       <c r="U8"/>
-      <c r="V8" t="s">
-        <v>68</v>
-      </c>
-      <c r="W8" t="s">
-        <v>68</v>
-      </c>
+      <c r="V8"/>
+      <c r="W8"/>
       <c r="X8" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="Y8" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" t="s">
         <v>58</v>
       </c>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
+      <c r="L9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R9">
+        <v>234234</v>
+      </c>
+      <c r="S9">
+        <v>234234234</v>
+      </c>
+      <c r="T9" t="s">
+        <v>64</v>
+      </c>
+      <c r="U9" t="s">
+        <v>55</v>
+      </c>
+      <c r="V9" t="s">
+        <v>65</v>
+      </c>
+      <c r="W9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10">
-        <v>123123</v>
-      </c>
-      <c r="I10">
-        <v>23423</v>
-      </c>
-      <c r="J10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" t="s">
-        <v>78</v>
-      </c>
-      <c r="M10" t="s">
-        <v>79</v>
-      </c>
-      <c r="N10" t="s">
-        <v>80</v>
-      </c>
-      <c r="O10" t="s">
-        <v>63</v>
-      </c>
-      <c r="P10" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>82</v>
-      </c>
-      <c r="R10">
-        <v>234</v>
-      </c>
-      <c r="S10">
-        <v>34</v>
-      </c>
-      <c r="T10">
-        <v>2323</v>
-      </c>
-      <c r="U10">
-        <v>234234</v>
-      </c>
-      <c r="V10" t="s">
-        <v>83</v>
-      </c>
-      <c r="W10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X10" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>48</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" t="s">
-        <v>87</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -1275,144 +1311,164 @@
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="M11" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="N11" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="P11" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="Q11" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="R11"/>
       <c r="S11"/>
       <c r="T11"/>
       <c r="U11"/>
       <c r="V11" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="W11" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="X11"/>
       <c r="Y11"/>
     </row>
     <row r="12" spans="1:25">
       <c r="A12">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
+      <c r="L12" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N12" t="s">
+        <v>83</v>
+      </c>
+      <c r="O12" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>86</v>
+      </c>
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12"/>
       <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
+      <c r="V12" t="s">
+        <v>87</v>
+      </c>
+      <c r="W12" t="s">
+        <v>87</v>
+      </c>
       <c r="X12"/>
       <c r="Y12"/>
     </row>
     <row r="13" spans="1:25">
       <c r="A13">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13"/>
+        <v>90</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
+      <c r="H13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" t="s">
+        <v>58</v>
+      </c>
       <c r="L13" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="M13" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="N13" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="O13" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="Q13" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="R13"/>
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13"/>
       <c r="V13" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="W13" t="s">
-        <v>68</v>
-      </c>
-      <c r="X13"/>
-      <c r="Y13"/>
+        <v>87</v>
+      </c>
+      <c r="X13" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" t="s">
-        <v>106</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E14"/>
       <c r="F14" t="s">
         <v>29</v>
       </c>
@@ -1421,122 +1477,144 @@
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
+      <c r="L14" t="s">
+        <v>103</v>
+      </c>
+      <c r="M14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N14" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>85</v>
+      </c>
       <c r="R14"/>
       <c r="S14"/>
       <c r="T14"/>
       <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>108</v>
-      </c>
+      <c r="V14" t="s">
+        <v>86</v>
+      </c>
+      <c r="W14" t="s">
+        <v>61</v>
+      </c>
+      <c r="X14"/>
+      <c r="Y14"/>
     </row>
     <row r="15" spans="1:25">
       <c r="A15">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15">
+        <v>9788755</v>
+      </c>
+      <c r="I15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15" t="s">
         <v>109</v>
       </c>
-      <c r="D15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="K15" t="s">
         <v>110</v>
       </c>
-      <c r="F15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
       <c r="L15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q15" t="s">
-        <v>42</v>
-      </c>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
+        <v>46</v>
+      </c>
+      <c r="R15" t="s">
+        <v>111</v>
+      </c>
+      <c r="S15" t="s">
+        <v>112</v>
+      </c>
+      <c r="T15">
+        <v>7000</v>
+      </c>
+      <c r="U15">
+        <v>6999</v>
+      </c>
+      <c r="V15" t="s">
+        <v>113</v>
+      </c>
+      <c r="W15" t="s">
+        <v>93</v>
+      </c>
       <c r="X15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Y15" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
-      <c r="L16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16" t="s">
-        <v>38</v>
-      </c>
-      <c r="N16" t="s">
-        <v>39</v>
-      </c>
-      <c r="O16" t="s">
-        <v>40</v>
-      </c>
-      <c r="P16" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>42</v>
-      </c>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
       <c r="R16"/>
       <c r="S16"/>
       <c r="T16"/>
@@ -1544,97 +1622,113 @@
       <c r="V16"/>
       <c r="W16"/>
       <c r="X16" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="Y16" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17"/>
-      <c r="H17"/>
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
       <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
       <c r="L17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q17" t="s">
-        <v>42</v>
-      </c>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
+        <v>45</v>
+      </c>
+      <c r="R17" t="s">
+        <v>111</v>
+      </c>
+      <c r="S17" t="s">
+        <v>112</v>
+      </c>
+      <c r="T17" t="s">
+        <v>123</v>
+      </c>
+      <c r="U17" t="s">
+        <v>124</v>
+      </c>
+      <c r="V17" t="s">
+        <v>46</v>
+      </c>
+      <c r="W17" t="s">
+        <v>113</v>
+      </c>
       <c r="X17" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="Y17" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
-      <c r="L18" t="s">
-        <v>37</v>
-      </c>
-      <c r="M18" t="s">
-        <v>38</v>
-      </c>
+      <c r="L18"/>
+      <c r="M18"/>
       <c r="N18"/>
       <c r="O18"/>
       <c r="P18"/>
@@ -1645,263 +1739,229 @@
       <c r="U18"/>
       <c r="V18"/>
       <c r="W18"/>
-      <c r="X18" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>118</v>
-      </c>
+      <c r="X18"/>
+      <c r="Y18"/>
     </row>
     <row r="19" spans="1:25">
       <c r="A19">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
+        <v>130</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I19" t="s">
+        <v>56</v>
+      </c>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="M19" t="s">
-        <v>120</v>
-      </c>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
+        <v>87</v>
+      </c>
+      <c r="N19" t="s">
+        <v>87</v>
+      </c>
+      <c r="O19" t="s">
+        <v>87</v>
+      </c>
+      <c r="P19" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>87</v>
+      </c>
       <c r="R19"/>
       <c r="S19"/>
       <c r="T19"/>
       <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>122</v>
-      </c>
+      <c r="V19" t="s">
+        <v>87</v>
+      </c>
+      <c r="W19" t="s">
+        <v>87</v>
+      </c>
+      <c r="X19"/>
+      <c r="Y19"/>
     </row>
     <row r="20" spans="1:25">
       <c r="A20">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" t="s">
-        <v>29</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
-      <c r="I20"/>
+      <c r="I20" t="s">
+        <v>56</v>
+      </c>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="M20" t="s">
-        <v>68</v>
-      </c>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
+        <v>87</v>
+      </c>
+      <c r="N20" t="s">
+        <v>87</v>
+      </c>
+      <c r="O20" t="s">
+        <v>87</v>
+      </c>
+      <c r="P20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>87</v>
+      </c>
       <c r="R20"/>
       <c r="S20"/>
       <c r="T20"/>
       <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>126</v>
-      </c>
+      <c r="V20" t="s">
+        <v>87</v>
+      </c>
+      <c r="W20" t="s">
+        <v>87</v>
+      </c>
+      <c r="X20"/>
+      <c r="Y20"/>
     </row>
     <row r="21" spans="1:25">
       <c r="A21">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" t="s">
-        <v>88</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="M21" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="N21" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="O21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P21" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="Q21" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="R21"/>
       <c r="S21"/>
       <c r="T21"/>
       <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21"/>
-      <c r="X21" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>136</v>
-      </c>
+      <c r="V21" t="s">
+        <v>87</v>
+      </c>
+      <c r="W21" t="s">
+        <v>87</v>
+      </c>
+      <c r="X21"/>
+      <c r="Y21"/>
     </row>
     <row r="22" spans="1:25">
       <c r="A22">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" t="s">
         <v>137</v>
       </c>
-      <c r="C22" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" t="s">
-        <v>110</v>
-      </c>
       <c r="F22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>59</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22"/>
       <c r="I22"/>
-      <c r="J22">
-        <v>2</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22" t="s">
-        <v>37</v>
-      </c>
-      <c r="M22" t="s">
-        <v>38</v>
-      </c>
-      <c r="N22" t="s">
-        <v>38</v>
-      </c>
-      <c r="O22" t="s">
-        <v>39</v>
-      </c>
-      <c r="P22" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>41</v>
-      </c>
-      <c r="R22" t="s">
-        <v>43</v>
-      </c>
-      <c r="S22" t="s">
-        <v>44</v>
-      </c>
-      <c r="T22" t="s">
-        <v>139</v>
-      </c>
-      <c r="U22" t="s">
-        <v>140</v>
-      </c>
-      <c r="V22" t="s">
-        <v>42</v>
-      </c>
-      <c r="W22" t="s">
-        <v>45</v>
-      </c>
-      <c r="X22" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>112</v>
-      </c>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
     </row>
     <row r="23" spans="1:25">
       <c r="A23">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
+      <c r="L23" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" t="s">
+        <v>32</v>
+      </c>
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
@@ -1912,16 +1972,193 @@
       <c r="U23"/>
       <c r="V23"/>
       <c r="W23"/>
-      <c r="X23"/>
-      <c r="Y23"/>
+      <c r="X23" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="24" spans="1:25">
+      <c r="A24">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
       <c r="E24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24" t="s">
+        <v>41</v>
+      </c>
+      <c r="M24" t="s">
+        <v>87</v>
+      </c>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
         <v>146</v>
       </c>
+      <c r="C25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25" t="s">
+        <v>93</v>
+      </c>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" t="s">
+        <v>42</v>
+      </c>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection password="83AF" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>

--- a/reports/assets_report.xlsx
+++ b/reports/assets_report.xlsx
@@ -3,7 +3,6 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <workbookProtection lockRevision="false" lockStructure="true" lockWindows="true" workbookPassword="83AF"/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
@@ -16,9 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
   <si>
     <t>Asset id</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
   </si>
   <si>
     <t>Asset Name</t>
@@ -250,22 +252,25 @@
     <t>Goodday</t>
   </si>
   <si>
+    <t>2014-12-05</t>
+  </si>
+  <si>
+    <t>2014-11-22</t>
+  </si>
+  <si>
+    <t>2014-11-23</t>
+  </si>
+  <si>
+    <t>2014-11-24</t>
+  </si>
+  <si>
+    <t>2014-11-29</t>
+  </si>
+  <si>
+    <t>2014-11-27</t>
+  </si>
+  <si>
     <t>2014-11-28</t>
-  </si>
-  <si>
-    <t>2014-11-22</t>
-  </si>
-  <si>
-    <t>2014-11-23</t>
-  </si>
-  <si>
-    <t>2014-11-24</t>
-  </si>
-  <si>
-    <t>2014-11-29</t>
-  </si>
-  <si>
-    <t>2014-11-27</t>
   </si>
   <si>
     <t>jack</t>
@@ -411,6 +416,12 @@
   </si>
   <si>
     <t>Salman</t>
+  </si>
+  <si>
+    <t>qw22</t>
+  </si>
+  <si>
+    <t>sdfdsfs</t>
   </si>
   <si>
     <t>sdfsafdsadf</t>
@@ -844,7 +855,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -853,8 +864,8 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="true" style="0"/>
-    <col min="2" max="2" width="20" customWidth="true" style="0"/>
-    <col min="3" max="3" width="20" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="40" customWidth="true" style="0"/>
     <col min="4" max="4" width="20" customWidth="true" style="0"/>
     <col min="5" max="5" width="20" customWidth="true" style="0"/>
     <col min="6" max="6" width="20" customWidth="true" style="0"/>
@@ -877,9 +888,10 @@
     <col min="23" max="23" width="20" customWidth="true" style="0"/>
     <col min="24" max="24" width="20" customWidth="true" style="0"/>
     <col min="25" max="25" width="20" customWidth="true" style="0"/>
+    <col min="26" max="26" width="20" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -955,14 +967,15 @@
       <c r="Y4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
+      <c r="B5"/>
       <c r="C5" t="s">
         <v>26</v>
       </c>
@@ -975,14 +988,14 @@
       <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="G5"/>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
-      <c r="L5" t="s">
-        <v>30</v>
-      </c>
+      <c r="L5"/>
       <c r="M5" t="s">
         <v>31</v>
       </c>
@@ -998,28 +1011,29 @@
       <c r="Q5" t="s">
         <v>35</v>
       </c>
-      <c r="R5"/>
+      <c r="R5" t="s">
+        <v>36</v>
+      </c>
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5"/>
-      <c r="X5" t="s">
-        <v>36</v>
-      </c>
+      <c r="X5"/>
       <c r="Y5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
+      <c r="B6"/>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -1028,16 +1042,16 @@
         <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6"/>
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
-      <c r="L6" t="s">
-        <v>41</v>
-      </c>
+      <c r="L6"/>
       <c r="M6" t="s">
         <v>42</v>
       </c>
@@ -1053,28 +1067,29 @@
       <c r="Q6" t="s">
         <v>46</v>
       </c>
-      <c r="R6"/>
+      <c r="R6" t="s">
+        <v>47</v>
+      </c>
       <c r="S6"/>
       <c r="T6"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
-      <c r="X6" t="s">
-        <v>47</v>
-      </c>
+      <c r="X6"/>
       <c r="Y6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B7"/>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
         <v>39</v>
@@ -1083,16 +1098,16 @@
         <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7"/>
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
-      <c r="L7" t="s">
-        <v>41</v>
-      </c>
+      <c r="L7"/>
       <c r="M7" t="s">
         <v>42</v>
       </c>
@@ -1108,28 +1123,29 @@
       <c r="Q7" t="s">
         <v>46</v>
       </c>
-      <c r="R7"/>
+      <c r="R7" t="s">
+        <v>47</v>
+      </c>
       <c r="S7"/>
       <c r="T7"/>
       <c r="U7"/>
       <c r="V7"/>
       <c r="W7"/>
-      <c r="X7" t="s">
-        <v>47</v>
-      </c>
+      <c r="X7"/>
       <c r="Y7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
+      <c r="B8"/>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>39</v>
@@ -1138,16 +1154,16 @@
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8"/>
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
-      <c r="L8" t="s">
-        <v>41</v>
-      </c>
+      <c r="L8"/>
       <c r="M8" t="s">
         <v>42</v>
       </c>
@@ -1163,26 +1179,27 @@
       <c r="Q8" t="s">
         <v>46</v>
       </c>
-      <c r="R8"/>
+      <c r="R8" t="s">
+        <v>47</v>
+      </c>
       <c r="S8"/>
       <c r="T8"/>
       <c r="U8"/>
       <c r="V8"/>
       <c r="W8"/>
-      <c r="X8" t="s">
-        <v>47</v>
-      </c>
+      <c r="X8"/>
       <c r="Y8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
+      <c r="B9"/>
       <c r="C9" t="s">
         <v>50</v>
       </c>
@@ -1226,22 +1243,22 @@
         <v>63</v>
       </c>
       <c r="Q9" t="s">
-        <v>61</v>
-      </c>
-      <c r="R9">
+        <v>64</v>
+      </c>
+      <c r="R9" t="s">
+        <v>62</v>
+      </c>
+      <c r="S9">
         <v>234234</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>234234234</v>
       </c>
-      <c r="T9" t="s">
-        <v>64</v>
-      </c>
       <c r="U9" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="V9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="W9" t="s">
         <v>66</v>
@@ -1252,14 +1269,15 @@
       <c r="Y9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
-        <v>69</v>
-      </c>
+      <c r="B10"/>
       <c r="C10" t="s">
         <v>70</v>
       </c>
@@ -1272,7 +1290,9 @@
       <c r="F10" t="s">
         <v>73</v>
       </c>
-      <c r="G10"/>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -1291,28 +1311,27 @@
       <c r="W10"/>
       <c r="X10"/>
       <c r="Y10"/>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10"/>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11"/>
+      <c r="B11"/>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
       <c r="D11"/>
       <c r="E11"/>
-      <c r="F11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11"/>
+      <c r="F11"/>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
-      <c r="L11" t="s">
-        <v>75</v>
-      </c>
+      <c r="L11"/>
       <c r="M11" t="s">
         <v>76</v>
       </c>
@@ -1326,29 +1345,32 @@
         <v>79</v>
       </c>
       <c r="Q11" t="s">
-        <v>65</v>
-      </c>
-      <c r="R11"/>
+        <v>80</v>
+      </c>
+      <c r="R11" t="s">
+        <v>66</v>
+      </c>
       <c r="S11"/>
       <c r="T11"/>
       <c r="U11"/>
-      <c r="V11" t="s">
-        <v>80</v>
-      </c>
+      <c r="V11"/>
       <c r="W11" t="s">
-        <v>75</v>
-      </c>
-      <c r="X11"/>
+        <v>81</v>
+      </c>
+      <c r="X11" t="s">
+        <v>82</v>
+      </c>
       <c r="Y11"/>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11"/>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12">
         <v>52</v>
       </c>
-      <c r="B12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12"/>
+      <c r="B12"/>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
@@ -1357,193 +1379,196 @@
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
-      <c r="L12" t="s">
-        <v>66</v>
-      </c>
+      <c r="L12"/>
       <c r="M12" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="N12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" t="s">
-        <v>86</v>
-      </c>
-      <c r="R12"/>
+        <v>87</v>
+      </c>
+      <c r="R12" t="s">
+        <v>88</v>
+      </c>
       <c r="S12"/>
       <c r="T12"/>
       <c r="U12"/>
-      <c r="V12" t="s">
-        <v>87</v>
-      </c>
+      <c r="V12"/>
       <c r="W12" t="s">
-        <v>87</v>
-      </c>
-      <c r="X12"/>
+        <v>89</v>
+      </c>
+      <c r="X12" t="s">
+        <v>89</v>
+      </c>
       <c r="Y12"/>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12"/>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
-        <v>88</v>
+      <c r="B13">
+        <v>122</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13"/>
-      <c r="H13" t="s">
-        <v>91</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13"/>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="K13" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="L13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M13" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="N13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q13" t="s">
-        <v>97</v>
-      </c>
-      <c r="R13"/>
+        <v>98</v>
+      </c>
+      <c r="R13" t="s">
+        <v>99</v>
+      </c>
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13"/>
-      <c r="V13" t="s">
-        <v>87</v>
-      </c>
+      <c r="V13"/>
       <c r="W13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="X13" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Y13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
+        <v>100</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>100</v>
-      </c>
+      <c r="B14"/>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14"/>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14"/>
+        <v>103</v>
+      </c>
+      <c r="E14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
-      <c r="L14" t="s">
-        <v>103</v>
-      </c>
+      <c r="L14"/>
       <c r="M14" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="N14" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="O14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P14" t="s">
         <v>85</v>
       </c>
       <c r="Q14" t="s">
-        <v>85</v>
-      </c>
-      <c r="R14"/>
+        <v>87</v>
+      </c>
+      <c r="R14" t="s">
+        <v>87</v>
+      </c>
       <c r="S14"/>
       <c r="T14"/>
       <c r="U14"/>
-      <c r="V14" t="s">
-        <v>86</v>
-      </c>
+      <c r="V14"/>
       <c r="W14" t="s">
-        <v>61</v>
-      </c>
-      <c r="X14"/>
+        <v>88</v>
+      </c>
+      <c r="X14" t="s">
+        <v>62</v>
+      </c>
       <c r="Y14"/>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14"/>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15">
         <v>48</v>
       </c>
-      <c r="B15" t="s">
-        <v>104</v>
-      </c>
+      <c r="B15"/>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="G15" t="s">
         <v>54</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15">
         <v>9788755</v>
       </c>
-      <c r="I15" t="s">
-        <v>108</v>
-      </c>
       <c r="J15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L15" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="M15" t="s">
         <v>42</v>
@@ -1561,50 +1586,53 @@
         <v>46</v>
       </c>
       <c r="R15" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="S15" t="s">
-        <v>112</v>
-      </c>
-      <c r="T15">
+        <v>113</v>
+      </c>
+      <c r="T15" t="s">
+        <v>114</v>
+      </c>
+      <c r="U15">
         <v>7000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>6999</v>
       </c>
-      <c r="V15" t="s">
-        <v>113</v>
-      </c>
       <c r="W15" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="X15" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="Y15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
+        <v>116</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
-        <v>116</v>
-      </c>
+      <c r="B16"/>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16"/>
+        <v>120</v>
+      </c>
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
@@ -1621,53 +1649,52 @@
       <c r="U16"/>
       <c r="V16"/>
       <c r="W16"/>
-      <c r="X16" t="s">
-        <v>119</v>
-      </c>
+      <c r="X16"/>
       <c r="Y16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
+        <v>121</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
-        <v>121</v>
-      </c>
+      <c r="B17"/>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17">
+        <v>41</v>
+      </c>
+      <c r="G17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17">
         <v>1</v>
       </c>
-      <c r="H17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I17"/>
-      <c r="J17">
+      <c r="I17" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>3</v>
-      </c>
-      <c r="L17" t="s">
-        <v>41</v>
       </c>
       <c r="M17" t="s">
         <v>42</v>
       </c>
       <c r="N17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O17" t="s">
         <v>43</v>
@@ -1679,50 +1706,53 @@
         <v>45</v>
       </c>
       <c r="R17" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="S17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T17" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="U17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="V17" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="W17" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="X17" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="Y17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
+        <v>127</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
-        <v>126</v>
-      </c>
+      <c r="B18"/>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18"/>
+        <v>130</v>
+      </c>
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -1741,227 +1771,238 @@
       <c r="W18"/>
       <c r="X18"/>
       <c r="Y18"/>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18"/>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
-      <c r="G19" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" t="s">
-        <v>131</v>
-      </c>
-      <c r="I19" t="s">
-        <v>56</v>
-      </c>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
-      <c r="L19" t="s">
-        <v>87</v>
-      </c>
+      <c r="L19"/>
       <c r="M19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q19" t="s">
-        <v>87</v>
-      </c>
-      <c r="R19"/>
+        <v>89</v>
+      </c>
+      <c r="R19" t="s">
+        <v>89</v>
+      </c>
       <c r="S19"/>
       <c r="T19"/>
       <c r="U19"/>
-      <c r="V19" t="s">
-        <v>87</v>
-      </c>
+      <c r="V19"/>
       <c r="W19" t="s">
-        <v>87</v>
-      </c>
-      <c r="X19"/>
+        <v>89</v>
+      </c>
+      <c r="X19" t="s">
+        <v>89</v>
+      </c>
       <c r="Y19"/>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19"/>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20">
-        <v>53</v>
-      </c>
-      <c r="B20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20"/>
-      <c r="D20"/>
+        <v>54</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" t="s">
+        <v>134</v>
+      </c>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
-      <c r="H20"/>
+      <c r="H20" t="s">
+        <v>55</v>
+      </c>
       <c r="I20" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20"/>
+        <v>135</v>
+      </c>
+      <c r="J20" t="s">
+        <v>57</v>
+      </c>
       <c r="K20"/>
-      <c r="L20" t="s">
-        <v>87</v>
-      </c>
+      <c r="L20"/>
       <c r="M20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q20" t="s">
-        <v>87</v>
-      </c>
-      <c r="R20"/>
+        <v>89</v>
+      </c>
+      <c r="R20" t="s">
+        <v>89</v>
+      </c>
       <c r="S20"/>
       <c r="T20"/>
       <c r="U20"/>
-      <c r="V20" t="s">
-        <v>87</v>
-      </c>
+      <c r="V20"/>
       <c r="W20" t="s">
-        <v>87</v>
-      </c>
-      <c r="X20"/>
+        <v>89</v>
+      </c>
+      <c r="X20" t="s">
+        <v>89</v>
+      </c>
       <c r="Y20"/>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20"/>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21"/>
+        <v>53</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21" t="s">
+        <v>134</v>
+      </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
-      <c r="J21"/>
+      <c r="J21" t="s">
+        <v>57</v>
+      </c>
       <c r="K21"/>
-      <c r="L21" t="s">
-        <v>75</v>
-      </c>
+      <c r="L21"/>
       <c r="M21" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="N21" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="O21" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="P21" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="Q21" t="s">
-        <v>77</v>
-      </c>
-      <c r="R21"/>
+        <v>89</v>
+      </c>
+      <c r="R21" t="s">
+        <v>89</v>
+      </c>
       <c r="S21"/>
       <c r="T21"/>
       <c r="U21"/>
-      <c r="V21" t="s">
-        <v>87</v>
-      </c>
+      <c r="V21"/>
       <c r="W21" t="s">
-        <v>87</v>
-      </c>
-      <c r="X21"/>
+        <v>89</v>
+      </c>
+      <c r="X21" t="s">
+        <v>89</v>
+      </c>
       <c r="Y21"/>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21"/>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>135</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B22"/>
       <c r="C22" t="s">
         <v>136</v>
       </c>
-      <c r="D22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" t="s">
-        <v>137</v>
-      </c>
-      <c r="F22" t="s">
-        <v>53</v>
-      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
+      <c r="M22" t="s">
+        <v>82</v>
+      </c>
+      <c r="N22" t="s">
+        <v>66</v>
+      </c>
+      <c r="O22" t="s">
+        <v>137</v>
+      </c>
+      <c r="P22" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>77</v>
+      </c>
+      <c r="R22" t="s">
+        <v>78</v>
+      </c>
       <c r="S22"/>
       <c r="T22"/>
       <c r="U22"/>
       <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22"/>
+      <c r="W22" t="s">
+        <v>89</v>
+      </c>
+      <c r="X22" t="s">
+        <v>89</v>
+      </c>
       <c r="Y22"/>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Z22"/>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>138</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B23"/>
       <c r="C23" t="s">
         <v>139</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23"/>
+        <v>141</v>
+      </c>
+      <c r="G23" t="s">
+        <v>54</v>
+      </c>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
-      <c r="L23" t="s">
-        <v>41</v>
-      </c>
-      <c r="M23" t="s">
-        <v>32</v>
-      </c>
+      <c r="L23"/>
+      <c r="M23"/>
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
@@ -1972,44 +2013,41 @@
       <c r="U23"/>
       <c r="V23"/>
       <c r="W23"/>
-      <c r="X23" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24" t="s">
         <v>142</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>143</v>
       </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24"/>
+        <v>41</v>
+      </c>
+      <c r="G24" t="s">
+        <v>54</v>
+      </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
-      <c r="L24" t="s">
-        <v>41</v>
-      </c>
+      <c r="L24"/>
       <c r="M24" t="s">
-        <v>87</v>
-      </c>
-      <c r="N24"/>
+        <v>42</v>
+      </c>
+      <c r="N24" t="s">
+        <v>33</v>
+      </c>
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24"/>
@@ -2019,42 +2057,45 @@
       <c r="U24"/>
       <c r="V24"/>
       <c r="W24"/>
-      <c r="X24" t="s">
+      <c r="X24"/>
+      <c r="Y24" t="s">
         <v>144</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:26">
       <c r="A25">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25" t="s">
         <v>146</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>147</v>
       </c>
-      <c r="D25" t="s">
-        <v>148</v>
-      </c>
       <c r="E25" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25"/>
+        <v>41</v>
+      </c>
+      <c r="G25" t="s">
+        <v>54</v>
+      </c>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
-      <c r="L25" t="s">
-        <v>93</v>
-      </c>
-      <c r="M25"/>
-      <c r="N25"/>
+      <c r="L25"/>
+      <c r="M25" t="s">
+        <v>42</v>
+      </c>
+      <c r="N25" t="s">
+        <v>89</v>
+      </c>
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
@@ -2064,42 +2105,41 @@
       <c r="U25"/>
       <c r="V25"/>
       <c r="W25"/>
-      <c r="X25" t="s">
+      <c r="X25"/>
+      <c r="Y25" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26" t="s">
         <v>150</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="D26" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="26" spans="1:25">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="E26" t="s">
         <v>152</v>
       </c>
-      <c r="C26" t="s">
-        <v>139</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>153</v>
       </c>
-      <c r="F26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26"/>
+      <c r="G26" t="s">
+        <v>54</v>
+      </c>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
-      <c r="L26" t="s">
-        <v>41</v>
-      </c>
+      <c r="L26"/>
       <c r="M26" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="N26"/>
       <c r="O26"/>
@@ -2111,40 +2151,45 @@
       <c r="U26"/>
       <c r="V26"/>
       <c r="W26"/>
-      <c r="X26" t="s">
+      <c r="X26"/>
+      <c r="Y26" t="s">
         <v>154</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:26">
       <c r="A27">
-        <v>17</v>
-      </c>
-      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27" t="s">
         <v>156</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" t="s">
         <v>157</v>
       </c>
-      <c r="D27" t="s">
-        <v>158</v>
-      </c>
-      <c r="E27" t="s">
-        <v>159</v>
-      </c>
-      <c r="F27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27"/>
+      <c r="G27" t="s">
+        <v>54</v>
+      </c>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
+      <c r="M27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N27" t="s">
+        <v>43</v>
+      </c>
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27"/>
@@ -2155,10 +2200,55 @@
       <c r="V27"/>
       <c r="W27"/>
       <c r="X27"/>
-      <c r="Y27"/>
+      <c r="Y27" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28">
+        <v>17</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
     </row>
   </sheetData>
-  <sheetProtection password="83AF" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection password="C539" sheet="true" objects="false" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>

--- a/reports/assets_report.xlsx
+++ b/reports/assets_report.xlsx
@@ -3,6 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <workbookProtection lockRevision="false" lockStructure="true" lockWindows="true" workbookPassword="83AF"/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
@@ -15,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
-  <si>
-    <t xml:space="preserve">Temop </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+  <si>
+    <t>Assets Report - New Horizons Company</t>
   </si>
   <si>
     <t>ID</t>
@@ -44,88 +45,10 @@
     <t>loc</t>
   </si>
   <si>
-    <t>Computer</t>
-  </si>
-  <si>
-    <t>Main server room</t>
-  </si>
-  <si>
-    <t>CPU</t>
-  </si>
-  <si>
-    <t>rP</t>
-  </si>
-  <si>
-    <t>Goodday</t>
-  </si>
-  <si>
-    <t>jack</t>
-  </si>
-  <si>
-    <t>liftsqaa</t>
-  </si>
-  <si>
-    <t>rPaa</t>
-  </si>
-  <si>
     <t>Moto e</t>
   </si>
   <si>
     <t>pettai</t>
-  </si>
-  <si>
-    <t>Moto E</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>NEW TEST</t>
-  </si>
-  <si>
-    <t>nokia 108</t>
-  </si>
-  <si>
-    <t>sdfdsfs</t>
-  </si>
-  <si>
-    <t>qw22</t>
-  </si>
-  <si>
-    <t>sdfsafdsadf</t>
-  </si>
-  <si>
-    <t>sdfsdf</t>
-  </si>
-  <si>
-    <t>sets</t>
-  </si>
-  <si>
-    <t>Sony</t>
-  </si>
-  <si>
-    <t>test aset 2</t>
-  </si>
-  <si>
-    <t>test aset 3</t>
-  </si>
-  <si>
-    <t>test asset</t>
-  </si>
-  <si>
-    <t>sfd</t>
-  </si>
-  <si>
-    <t>test asset 1</t>
-  </si>
-  <si>
-    <t>Xpefia</t>
-  </si>
-  <si>
-    <t>al</t>
   </si>
 </sst>
 </file>
@@ -511,7 +434,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D1" sqref="D1"/>
@@ -603,7 +526,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -613,228 +536,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>122</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
-        <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17"/>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18"/>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20">
-        <v>54</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20"/>
-      <c r="D20"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21">
-        <v>53</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21"/>
-      <c r="D21"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22">
-        <v>51</v>
-      </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22"/>
-      <c r="D22"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23">
-        <v>16</v>
-      </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23"/>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24"/>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25"/>
-      <c r="D25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26">
-        <v>20</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26"/>
-      <c r="D26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27"/>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28">
-        <v>17</v>
-      </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28"/>
-      <c r="D28" t="s">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection password="C539" sheet="true" objects="false" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="A1:C1"/>

--- a/reports/assets_report.xlsx
+++ b/reports/assets_report.xlsx
@@ -16,39 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
-    <t>Assets Report - New Horizons Company</t>
+    <t>reiuyg</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>Status</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>under_maintenance</t>
   </si>
   <si>
-    <t>Serial Number</t>
+    <t>inactive</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>aaaaa ba</t>
-  </si>
-  <si>
-    <t>ass loc</t>
-  </si>
-  <si>
-    <t>Asset Name</t>
-  </si>
-  <si>
-    <t>loc</t>
-  </si>
-  <si>
-    <t>Moto e</t>
-  </si>
-  <si>
-    <t>pettai</t>
+    <t>active</t>
   </si>
 </sst>
 </file>
@@ -434,7 +416,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D1" sqref="D1"/>
@@ -443,9 +425,6 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="true" style="0"/>
-    <col min="2" max="2" width="20" customWidth="true" style="0"/>
-    <col min="3" max="3" width="20" customWidth="true" style="0"/>
-    <col min="4" max="4" width="20" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" customHeight="1" ht="75">
@@ -466,74 +445,100 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9" t="s">
-        <v>10</v>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/reports/assets_report.xlsx
+++ b/reports/assets_report.xlsx
@@ -16,21 +16,221 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
-  <si>
-    <t>reiuyg</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>under_maintenance</t>
-  </si>
-  <si>
-    <t>inactive</t>
-  </si>
-  <si>
-    <t>active</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>MOT License Expiry</t>
+  </si>
+  <si>
+    <t>MVPI Expiry</t>
+  </si>
+  <si>
+    <t>Accident HIstory</t>
+  </si>
+  <si>
+    <t>LIFT</t>
+  </si>
+  <si>
+    <t>Main lift this wayaa</t>
+  </si>
+  <si>
+    <t>2014-12-22</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>aaaaaaaa</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t>ericson prodct</t>
+  </si>
+  <si>
+    <t>rIAYD</t>
+  </si>
+  <si>
+    <t>0000-00-00</t>
+  </si>
+  <si>
+    <t>Xpefia</t>
+  </si>
+  <si>
+    <t>tip</t>
+  </si>
+  <si>
+    <t>Jeddahs</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>intel 
+sdf</t>
+  </si>
+  <si>
+    <t>rP</t>
+  </si>
+  <si>
+    <t>nokia 108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The brand new nokia 108 for us 
+</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>test asset</t>
+  </si>
+  <si>
+    <t>sdfsrfsf</t>
+  </si>
+  <si>
+    <t>sfd</t>
+  </si>
+  <si>
+    <t>Thi is tesxt</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>loc</t>
+  </si>
+  <si>
+    <t>accsa</t>
+  </si>
+  <si>
+    <t>test asset 1</t>
+  </si>
+  <si>
+    <t>asset desc</t>
+  </si>
+  <si>
+    <t>ass loc</t>
+  </si>
+  <si>
+    <t>accid his</t>
+  </si>
+  <si>
+    <t>test aset 2</t>
+  </si>
+  <si>
+    <t>acc his</t>
+  </si>
+  <si>
+    <t>test aset 3</t>
+  </si>
+  <si>
+    <t>ASDF</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>Asset Name</t>
+  </si>
+  <si>
+    <t>deswc</t>
+  </si>
+  <si>
+    <t>2014-10-06</t>
+  </si>
+  <si>
+    <t>acc</t>
+  </si>
+  <si>
+    <t>aaaaa ba</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>2014-10-25</t>
+  </si>
+  <si>
+    <t>asfa</t>
+  </si>
+  <si>
+    <t>NEW TEST</t>
+  </si>
+  <si>
+    <t>Ass desc</t>
+  </si>
+  <si>
+    <t>2014-10-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acc  </t>
+  </si>
+  <si>
+    <t>Moto E</t>
+  </si>
+  <si>
+    <t>My Own motorolla</t>
+  </si>
+  <si>
+    <t>NIL</t>
+  </si>
+  <si>
+    <t>sets</t>
+  </si>
+  <si>
+    <t>wqwqw</t>
+  </si>
+  <si>
+    <t>2014-11-23</t>
+  </si>
+  <si>
+    <t>jack</t>
+  </si>
+  <si>
+    <t>2014-11-17</t>
+  </si>
+  <si>
+    <t>sdfsdf</t>
+  </si>
+  <si>
+    <t>sdfsafdsadf</t>
+  </si>
+  <si>
+    <t>sdfdsfs</t>
+  </si>
+  <si>
+    <t>qw22</t>
+  </si>
+  <si>
+    <t>asdfsdfsdf</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>2014-12-10</t>
   </si>
 </sst>
 </file>
@@ -416,7 +616,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D1" sqref="D1"/>
@@ -425,6 +625,12 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="true" style="0"/>
+    <col min="2" max="2" width="20" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20" customWidth="true" style="0"/>
+    <col min="4" max="4" width="20" customWidth="true" style="0"/>
+    <col min="5" max="5" width="20" customWidth="true" style="0"/>
+    <col min="6" max="6" width="20" customWidth="true" style="0"/>
+    <col min="7" max="7" width="20" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" customHeight="1" ht="75">
@@ -445,101 +651,453 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>2</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>2</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>3</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10"/>
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>38</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>40</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>43</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16"/>
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17"/>
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18"/>
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19"/>
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>55</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>4</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>4</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>4</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>4</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27"/>
     </row>
   </sheetData>
   <sheetProtection password="C539" sheet="true" objects="false" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
